--- a/UI_Webpage/layout plan.xlsx
+++ b/UI_Webpage/layout plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://labtestcertificationinc-my.sharepoint.com/personal/kdhillon_labtestcert_com/Documents/LabTestCert/LC Test Streams/S0900 - Fenestration Wall Testing/A. Test Apparatus/D. Toronto Fenestration Wall/A. Components/C0 - Controller/.A - Software/UI_Webpage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{CC2BBCA5-8B71-4EF3-8875-D7EAA5356268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BECB2014-8E6D-4B2B-AFA4-3F29705D6105}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{CC2BBCA5-8B71-4EF3-8875-D7EAA5356268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{610F7BC4-C756-4B23-8AB1-A2715E995889}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71A5893A-0805-420F-8C5E-EDEF138E9C36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{71A5893A-0805-420F-8C5E-EDEF138E9C36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>text)</a:t>
+            <a:t>label-value)</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
         </a:p>
@@ -588,11 +588,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>(Short </a:t>
+            <a:t>(label-value</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>text)</a:t>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
         </a:p>
@@ -888,11 +888,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>(live </a:t>
+            <a:t>(smart-label-value</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>text)</a:t>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
         </a:p>
@@ -1660,7 +1660,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UI_Webpage/layout plan.xlsx
+++ b/UI_Webpage/layout plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://labtestcertificationinc-my.sharepoint.com/personal/kdhillon_labtestcert_com/Documents/LabTestCert/LC Test Streams/S0900 - Fenestration Wall Testing/A. Test Apparatus/D. Toronto Fenestration Wall/A. Components/C0 - Controller/.A - Software/UI_Webpage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{CC2BBCA5-8B71-4EF3-8875-D7EAA5356268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{610F7BC4-C756-4B23-8AB1-A2715E995889}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{CC2BBCA5-8B71-4EF3-8875-D7EAA5356268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156CF461-EDFB-4408-9ADE-0F322FD1CF1C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{71A5893A-0805-420F-8C5E-EDEF138E9C36}"/>
   </bookViews>
@@ -485,18 +485,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -560,18 +558,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>

--- a/UI_Webpage/layout plan.xlsx
+++ b/UI_Webpage/layout plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://labtestcertificationinc-my.sharepoint.com/personal/kdhillon_labtestcert_com/Documents/LabTestCert/LC Test Streams/S0900 - Fenestration Wall Testing/A. Test Apparatus/D. Toronto Fenestration Wall/A. Components/C0 - Controller/.A - Software/UI_Webpage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{CC2BBCA5-8B71-4EF3-8875-D7EAA5356268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156CF461-EDFB-4408-9ADE-0F322FD1CF1C}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{CC2BBCA5-8B71-4EF3-8875-D7EAA5356268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B60B40D-893D-4E27-8C5A-0FB2E2B1456A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{71A5893A-0805-420F-8C5E-EDEF138E9C36}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71A5893A-0805-420F-8C5E-EDEF138E9C36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,15 +90,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -113,7 +113,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="2476500"/>
+          <a:off x="2352675" y="3314700"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -122,18 +122,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -165,15 +163,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -188,7 +186,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="2476500"/>
+          <a:off x="4524375" y="3314700"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -197,18 +195,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -240,15 +236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -263,7 +259,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371725" y="5095875"/>
+          <a:off x="2343150" y="5934075"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -272,18 +268,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -315,15 +309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -338,7 +332,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="5095875"/>
+          <a:off x="4524375" y="5934075"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -347,18 +341,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -390,15 +382,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -413,7 +405,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371725" y="3133725"/>
+          <a:off x="2343150" y="3971925"/>
           <a:ext cx="4295775" cy="1866900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -453,15 +445,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -476,7 +468,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371725" y="590550"/>
+          <a:off x="2343150" y="1428750"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -526,15 +518,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -549,7 +541,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4543425" y="581025"/>
+          <a:off x="4514850" y="1419225"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -599,15 +591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -622,7 +614,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="1228725"/>
+          <a:off x="4524375" y="2066925"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -631,18 +623,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -674,15 +664,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -697,7 +687,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362200" y="1857375"/>
+          <a:off x="2333625" y="2695575"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -706,18 +696,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -749,15 +737,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -772,7 +760,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4562475" y="1857375"/>
+          <a:off x="4533900" y="2695575"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -781,18 +769,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -824,15 +810,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -847,7 +833,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362200" y="1238250"/>
+          <a:off x="2333625" y="2076450"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -856,15 +842,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent6">
             <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1326,6 +1312,152 @@
           <a:r>
             <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
             <a:t> text)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FE6826-AB5B-487E-B9CF-C03BB207053F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="800100"/>
+          <a:ext cx="2105025" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>STOP_ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>(button</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA0DCD1-2963-4AE3-330E-DDAF530A70FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="800100"/>
+          <a:ext cx="2105025" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>targetPressure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>(value-sender</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
         </a:p>
@@ -1656,7 +1788,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UI_Webpage/layout plan.xlsx
+++ b/UI_Webpage/layout plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://labtestcertificationinc-my.sharepoint.com/personal/kdhillon_labtestcert_com/Documents/LabTestCert/LC Test Streams/S0900 - Fenestration Wall Testing/A. Test Apparatus/D. Toronto Fenestration Wall/A. Components/C0 - Controller/.A - Software/UI_Webpage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{CC2BBCA5-8B71-4EF3-8875-D7EAA5356268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B60B40D-893D-4E27-8C5A-0FB2E2B1456A}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{CC2BBCA5-8B71-4EF3-8875-D7EAA5356268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EE6941C-8D24-4E32-AC4A-8BA18DB347B6}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71A5893A-0805-420F-8C5E-EDEF138E9C36}"/>
   </bookViews>
@@ -623,16 +623,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -696,16 +698,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -769,16 +773,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -842,15 +848,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
+          <a:schemeClr val="accent3">
             <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1354,16 +1360,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1427,16 +1435,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>

--- a/UI_Webpage/layout plan.xlsx
+++ b/UI_Webpage/layout plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://labtestcertificationinc-my.sharepoint.com/personal/kdhillon_labtestcert_com/Documents/LabTestCert/LC Test Streams/S0900 - Fenestration Wall Testing/A. Test Apparatus/D. Toronto Fenestration Wall/A. Components/C0 - Controller/.A - Software/UI_Webpage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{CC2BBCA5-8B71-4EF3-8875-D7EAA5356268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EE6941C-8D24-4E32-AC4A-8BA18DB347B6}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{CC2BBCA5-8B71-4EF3-8875-D7EAA5356268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6FB51A3-486E-4943-BE12-D423A11DDD52}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71A5893A-0805-420F-8C5E-EDEF138E9C36}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -122,16 +123,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -195,16 +198,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -268,16 +273,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -341,16 +348,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -815,16 +824,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -839,7 +848,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="2076450"/>
+          <a:off x="4514850" y="790575"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1402,16 +1411,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1426,7 +1435,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4514850" y="800100"/>
+          <a:off x="2343150" y="2047875"/>
           <a:ext cx="2105025" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1476,6 +1485,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1798,7 +1811,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
